--- a/SKRAM/Solución Actividad/SKRAM_ACTIVIDAD_EN_CLASE.xlsx
+++ b/SKRAM/Solución Actividad/SKRAM_ACTIVIDAD_EN_CLASE.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$D$18</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t xml:space="preserve">NÚMERO</t>
   </si>
@@ -235,6 +238,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF222222"/>
       <name val="Times New Roman"/>
@@ -254,14 +265,6 @@
       <color rgb="FF222222"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -409,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -446,31 +449,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,7 +489,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,6 +522,44 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -578,6 +623,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -586,7 +635,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
@@ -642,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
@@ -655,6 +704,9 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -669,11 +721,11 @@
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -688,13 +740,13 @@
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -711,13 +763,13 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -734,13 +786,13 @@
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -757,13 +809,13 @@
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -780,13 +832,13 @@
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -892,77 +944,78 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="15" t="n">
+      <c r="C18" s="16" t="n">
         <f aca="false">SUM(C2:C17)</f>
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="str">
-        <f aca="false">G7</f>
-        <v>RIESGO ALTO</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="17"/>
-      <c r="H19" s="18" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="22"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
+  <autoFilter ref="A1:D18"/>
+  <mergeCells count="3">
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G18:H18"/>
   </mergeCells>
@@ -973,5 +1026,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>